--- a/src/Spielpraeferenzen.xlsx
+++ b/src/Spielpraeferenzen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/Lilian/SpielMorgen/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90288DE0-08E5-4F1D-8F8A-2A7731E74C60}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="720" windowWidth="38370" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +90,93 @@
   </si>
   <si>
     <t>Egli</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Jassen;Volleyball;Puzzle;Fussball;Schach;Schwimmen;Sackgumpen</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Volleyball;Puzzle;Fussball;Schach;Schwimmen;Sackgumpen;Jassen</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Puzzle;Fussball;Schach;Schwimmen;Sackgumpen;Jassen;Volleyball</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>Fussball;Schach;Schwimmen;Sackgumpen;Jassen;Volleyball;Puzzle</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Schach;Schwimmen;Sackgumpen;Jassen;Volleyball;Puzzle;Fussball</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Schwimmen;Sackgumpen;Jassen;Volleyball;Puzzle;Fussball;Schach</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Sackgumpen;Jassen;Volleyball;Puzzle;Fussball;Schach;Schwimmen</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Schulz</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Schäfer</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Felix</t>
   </si>
 </sst>
 </file>
@@ -125,10 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -166,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:H123" totalsRowShown="0">
+  <autoFilter ref="A1:H123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="5">
       <extLst>
@@ -229,7 +320,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAANAAQ99DTxUNFhPRjBPUkk3UzlTQlkxTlpUOVpWNzE0US4u" isFormConnected="1" maxResponseId="3" latestEventMarker="3">
+      <xlmsforms:msForm id="DQSIkWdsW0yxEjajBLZtrQAAAAAAAAAAAANAAQ99DTxUNFhPRjBPUkk3UzlTQlkxTlpUOVpWNzE0US4u" maxResponseId="3" latestEventMarker="3">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -541,13 +632,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102:H123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,6 +739,1672 @@
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/Spielpraeferenzen.xlsx
+++ b/src/Spielpraeferenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/Lilian/SpielMorgen/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90288DE0-08E5-4F1D-8F8A-2A7731E74C60}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21FE112-241B-4C11-A13B-ADF76C15552F}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="720" windowWidth="38370" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21930" yWindow="945" windowWidth="38370" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,11 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -258,7 +257,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:H123" totalsRowShown="0">
-  <autoFilter ref="A1:H123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:H123" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Weber"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="5">
       <extLst>
@@ -634,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102:H123"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -694,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,7 +722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -741,8 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -755,8 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -769,8 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -783,8 +785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -798,7 +799,6 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -811,8 +811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -825,8 +824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -839,8 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -853,8 +850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -867,8 +863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -881,8 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -895,8 +889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -909,8 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
@@ -923,8 +915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -937,8 +928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -951,8 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -965,8 +954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -979,8 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -993,8 +980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1007,8 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -1021,8 +1006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
@@ -1035,8 +1019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="26" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1049,8 +1032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1063,8 +1045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1077,1333 +1058,1238 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+    <row r="29" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+    <row r="30" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+    <row r="31" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+    <row r="34" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+    <row r="35" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+    <row r="36" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+    <row r="37" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+    <row r="38" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+    <row r="39" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+    <row r="40" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+    <row r="41" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+    <row r="42" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+    <row r="43" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+    <row r="44" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+    <row r="46" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+    <row r="47" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+    <row r="48" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+    <row r="49" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+    <row r="50" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+    <row r="51" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+    <row r="52" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+    <row r="53" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+    <row r="54" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+    <row r="55" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+    <row r="56" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+    <row r="58" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+    <row r="59" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+    <row r="60" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+    <row r="61" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+    <row r="62" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+    <row r="63" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+    <row r="64" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+    <row r="65" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+    <row r="66" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+    <row r="67" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+    <row r="68" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+    <row r="70" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+    <row r="71" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+    <row r="72" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+    <row r="73" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+    <row r="74" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+    <row r="75" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+    <row r="76" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+    <row r="77" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+    <row r="78" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+    <row r="79" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+    <row r="80" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+    <row r="82" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+    <row r="83" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+    <row r="84" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+    <row r="85" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+    <row r="86" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+    <row r="87" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+    <row r="88" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+    <row r="89" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+    <row r="90" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+    <row r="91" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+    <row r="92" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+    <row r="94" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+    <row r="95" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="H95" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+    <row r="96" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
+    <row r="97" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+    <row r="98" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+    <row r="99" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+    <row r="100" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+    <row r="101" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+    <row r="102" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G102" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+    <row r="103" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H103" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+    <row r="104" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H105" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+    <row r="106" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+    <row r="107" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+    <row r="108" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+    <row r="109" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H109" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+    <row r="110" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+    <row r="111" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
+    <row r="112" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H112" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+    <row r="113" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+    <row r="114" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+    <row r="115" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H115" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+    <row r="116" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+    <row r="118" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H118" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+    <row r="119" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+    <row r="120" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+    <row r="121" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="H121" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+    <row r="122" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H122" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+    <row r="123" spans="4:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" s="3" t="s">
         <v>36</v>
       </c>
     </row>

--- a/src/Spielpraeferenzen.xlsx
+++ b/src/Spielpraeferenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/Lilian/SpielMorgen/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21FE112-241B-4C11-A13B-ADF76C15552F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790AFBEB-20A7-4ACF-818B-12516D277E54}"/>
   <bookViews>
-    <workbookView xWindow="21930" yWindow="945" windowWidth="38370" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="0" windowWidth="38370" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Felix</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1270,9 @@
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
         <v>26</v>

--- a/src/Spielpraeferenzen.xlsx
+++ b/src/Spielpraeferenzen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/Lilian/SpielMorgen/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790AFBEB-20A7-4ACF-818B-12516D277E54}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{DD850237-FDC4-4D12-B8A7-30756DE85F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74D7FE7A-CCD1-4711-BE91-198A2F455B70}"/>
   <bookViews>
     <workbookView xWindow="12480" yWindow="0" windowWidth="38370" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>ee</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1587,9 @@
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="3" t="s">
         <v>26</v>
